--- a/doc/Case-LayerPosition.xlsx
+++ b/doc/Case-LayerPosition.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\FlightComputer\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Private\src\FlightComputer\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C749958-2A23-43A4-9FC1-7B93810A4261}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EE2FDE-4B4C-4912-9DAD-9852B0874772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="585" windowWidth="25320" windowHeight="13350" xr2:uid="{3B817049-F91C-4687-990C-2E2DCC7472C8}"/>
+    <workbookView xWindow="1560" yWindow="1545" windowWidth="22920" windowHeight="14655" xr2:uid="{3B817049-F91C-4687-990C-2E2DCC7472C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -152,9 +152,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;₩&quot;#,##0.00;[Red]\-&quot;₩&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="&quot;₩&quot;#,##0.00;[Red]\-&quot;₩&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,10 +221,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -543,11 +543,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9DA55B-80E1-4FA6-99E1-35E76EE11622}">
   <dimension ref="E4:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
@@ -557,7 +557,7 @@
     <col min="19" max="19" width="18.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="5:19">
       <c r="F4" t="s">
         <v>6</v>
       </c>
@@ -583,7 +583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="5:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="5:19">
       <c r="E5" t="s">
         <v>0</v>
       </c>
@@ -614,7 +614,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="6" spans="5:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:19">
       <c r="E6" t="s">
         <v>1</v>
       </c>
@@ -638,7 +638,7 @@
         <v>7.37</v>
       </c>
     </row>
-    <row r="7" spans="5:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:19">
       <c r="E7" t="s">
         <v>2</v>
       </c>
@@ -659,7 +659,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="8" spans="5:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:19">
       <c r="E8" t="s">
         <v>3</v>
       </c>
@@ -684,7 +684,7 @@
         <v>5.08</v>
       </c>
     </row>
-    <row r="9" spans="5:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:19">
       <c r="E9" t="s">
         <v>4</v>
       </c>
@@ -709,7 +709,7 @@
         <v>4.57</v>
       </c>
     </row>
-    <row r="10" spans="5:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:19">
       <c r="E10" t="s">
         <v>3</v>
       </c>
@@ -724,7 +724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="5:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:19">
       <c r="E11" t="s">
         <v>5</v>
       </c>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="5:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="5:19">
       <c r="G13">
         <f>SUM(G5:G11)</f>
         <v>18.600000000000001</v>
@@ -753,7 +753,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="5:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="5:19">
       <c r="M14" t="s">
         <v>14</v>
       </c>
@@ -767,7 +767,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="15" spans="5:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="5:19">
       <c r="M15" t="s">
         <v>17</v>
       </c>
@@ -778,7 +778,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="16" spans="5:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="5:19">
       <c r="M16" t="s">
         <v>22</v>
       </c>
@@ -789,7 +789,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="17" spans="5:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:19">
       <c r="M17" s="2" t="s">
         <v>24</v>
       </c>
@@ -806,7 +806,7 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="18" spans="5:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:19">
       <c r="E18" t="s">
         <v>18</v>
       </c>
@@ -829,7 +829,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="19" spans="5:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:19">
       <c r="M19" t="s">
         <v>28</v>
       </c>
@@ -837,12 +837,12 @@
         <v>4708.7</v>
       </c>
     </row>
-    <row r="21" spans="5:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:19">
       <c r="N21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="5:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:19">
       <c r="M22" t="s">
         <v>26</v>
       </c>
@@ -850,7 +850,7 @@
         <v>6.08</v>
       </c>
     </row>
-    <row r="23" spans="5:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:19">
       <c r="M23" t="s">
         <v>27</v>
       </c>

--- a/doc/Case-LayerPosition.xlsx
+++ b/doc/Case-LayerPosition.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Private\src\FlightComputer\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\FlightComputer\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EE2FDE-4B4C-4912-9DAD-9852B0874772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FD5343-C8DD-4A1F-BB92-9BDAFFA389C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1545" windowWidth="22920" windowHeight="14655" xr2:uid="{3B817049-F91C-4687-990C-2E2DCC7472C8}"/>
+    <workbookView xWindow="29115" yWindow="720" windowWidth="26175" windowHeight="15810" xr2:uid="{3B817049-F91C-4687-990C-2E2DCC7472C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>Cover</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,9 +152,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="&quot;₩&quot;#,##0.00;[Red]\-&quot;₩&quot;#,##0.00"/>
+    <numFmt numFmtId="8" formatCode="&quot;₩&quot;#,##0.00;[Red]\-&quot;₩&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,10 +221,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -544,10 +544,10 @@
   <dimension ref="E4:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
@@ -557,7 +557,7 @@
     <col min="19" max="19" width="18.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:19">
+    <row r="4" spans="5:19" x14ac:dyDescent="0.3">
       <c r="F4" t="s">
         <v>6</v>
       </c>
@@ -583,7 +583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="5:19">
+    <row r="5" spans="5:19" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>0</v>
       </c>
@@ -614,7 +614,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="6" spans="5:19">
+    <row r="6" spans="5:19" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>1</v>
       </c>
@@ -638,7 +638,7 @@
         <v>7.37</v>
       </c>
     </row>
-    <row r="7" spans="5:19">
+    <row r="7" spans="5:19" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>2</v>
       </c>
@@ -659,7 +659,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="8" spans="5:19">
+    <row r="8" spans="5:19" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>3</v>
       </c>
@@ -684,7 +684,7 @@
         <v>5.08</v>
       </c>
     </row>
-    <row r="9" spans="5:19">
+    <row r="9" spans="5:19" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
         <v>4</v>
       </c>
@@ -709,7 +709,7 @@
         <v>4.57</v>
       </c>
     </row>
-    <row r="10" spans="5:19">
+    <row r="10" spans="5:19" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
         <v>3</v>
       </c>
@@ -724,7 +724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="5:19">
+    <row r="11" spans="5:19" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
         <v>5</v>
       </c>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="5:19">
+    <row r="13" spans="5:19" x14ac:dyDescent="0.3">
       <c r="G13">
         <f>SUM(G5:G11)</f>
         <v>18.600000000000001</v>
@@ -753,7 +753,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="5:19">
+    <row r="14" spans="5:19" x14ac:dyDescent="0.3">
       <c r="M14" t="s">
         <v>14</v>
       </c>
@@ -767,7 +767,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="15" spans="5:19">
+    <row r="15" spans="5:19" x14ac:dyDescent="0.3">
       <c r="M15" t="s">
         <v>17</v>
       </c>
@@ -778,7 +778,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="16" spans="5:19">
+    <row r="16" spans="5:19" x14ac:dyDescent="0.3">
       <c r="M16" t="s">
         <v>22</v>
       </c>
@@ -789,7 +789,17 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="17" spans="5:19">
+    <row r="17" spans="5:19" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1.6</v>
+      </c>
+      <c r="G17">
+        <f>F9-F17</f>
+        <v>4.4000000000000004</v>
+      </c>
       <c r="M17" s="2" t="s">
         <v>24</v>
       </c>
@@ -806,13 +816,17 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="18" spans="5:19">
+    <row r="18" spans="5:19" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
         <v>18</v>
       </c>
       <c r="F18">
         <v>1.45</v>
       </c>
+      <c r="G18">
+        <f>F9-F18</f>
+        <v>4.55</v>
+      </c>
       <c r="M18" s="2" t="s">
         <v>25</v>
       </c>
@@ -829,7 +843,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="19" spans="5:19">
+    <row r="19" spans="5:19" x14ac:dyDescent="0.3">
       <c r="M19" t="s">
         <v>28</v>
       </c>
@@ -837,12 +851,12 @@
         <v>4708.7</v>
       </c>
     </row>
-    <row r="21" spans="5:19">
+    <row r="21" spans="5:19" x14ac:dyDescent="0.3">
       <c r="N21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="5:19">
+    <row r="22" spans="5:19" x14ac:dyDescent="0.3">
       <c r="M22" t="s">
         <v>26</v>
       </c>
@@ -850,7 +864,7 @@
         <v>6.08</v>
       </c>
     </row>
-    <row r="23" spans="5:19">
+    <row r="23" spans="5:19" x14ac:dyDescent="0.3">
       <c r="M23" t="s">
         <v>27</v>
       </c>
